--- a/biology/Médecine/SimHealth/SimHealth.xlsx
+++ b/biology/Médecine/SimHealth/SimHealth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">SimHealth, édité par Maxis en 1994, est une  simulation du système de santé américain. Ce jeu, conçu avec l'assistance de la Markle Foundation, est relativement inconnu et difficile à trouver. Le seul lien entre ce titre et SimCity 2000 se situait au niveau de l'interface utilisateur.
 Cette simulation en vue  isométrique de la  série Sim était considérée comme relativement complexe et difficile. Le but est de parvenir à créer un système de santé équilibré. Le joueur pouvait mettre en place et personnaliser des plans de systèmes de soins et regarder le résultat basé sur des équations mathématiques.
